--- a/Lamia/DBASE/create/Base2_chantier_0_1.xlsx
+++ b/Lamia/DBASE/create/Base2_chantier_0_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AAC906-1EC6-458C-BBD3-AF5AE0126D72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6EFFE9-2DF3-4A31-A58F-E8ABF0541401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="390">
   <si>
     <t>00_Basedonnees'!A1</t>
   </si>
@@ -739,9 +739,6 @@
     <t>NCE</t>
   </si>
   <si>
-    <t>SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet LEFT JOIN Observation as nca ON nca.lid_desordre = Desordre.id_desordre AND nca.typeobservation = 'NCA' LEFT JOIN Observation as ncb ON ncb.lid_desordre = Desordre.id_desordre AND ncb.typeobservation = 'NCB'  LEFT JOIN Observation as ncc ON ncc.lid_desordre = Desordre.id_desordre AND ncc.typeobservation = 'NCC' LEFT JOIN Observation as ncd ON ncd.lid_desordre = Desordre.id_desordre AND ncd.typeobservation = 'NCD'  LEFT JOIN Observation as nce ON nce.lid_desordre = Desordre.id_desordre AND nce.typeobservation = 'NCE' GROUP BY Desordre.pk_desordre</t>
-  </si>
-  <si>
     <t>PV mise à disposition</t>
   </si>
   <si>
@@ -1196,6 +1193,21 @@
   </si>
   <si>
     <t>item_obs_40</t>
+  </si>
+  <si>
+    <t># SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet LEFT JOIN Observation as nca ON nca.lid_desordre = Desordre.id_desordre AND nca.typeobservation = 'NCA' LEFT JOIN Observation as ncb ON ncb.lid_desordre = Desordre.id_desordre AND ncb.typeobservation = 'NCB'  LEFT JOIN Observation as ncc ON ncc.lid_desordre = Desordre.id_desordre AND ncc.typeobservation = 'NCC' LEFT JOIN Observation as ncd ON ncd.lid_desordre = Desordre.id_desordre AND ncd.typeobservation = 'NCD'  LEFT JOIN Observation as nce ON nce.lid_desordre = Desordre.id_desordre AND nce.typeobservation = 'NCE' GROUP BY Desordre.pk_desordre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  ,COUNT(SousObservation.pk_observation) as ncassfichenonconf
+FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet 
+LEFT JOIN Observation as nca ON nca.lid_desordre = Desordre.id_desordre AND nca.typeobservation = 'NCA' 
+LEFT JOIN Observation as ncb ON ncb.lid_desordre = Desordre.id_desordre AND ncb.typeobservation = 'NCB'  
+LEFT JOIN Observation as ncc ON ncc.lid_desordre = Desordre.id_desordre AND ncc.typeobservation = 'NCC' 
+LEFT JOIN Observation as ncd ON ncd.lid_desordre = Desordre.id_desordre AND ncd.typeobservation = 'NCD'  
+LEFT JOIN Observation as nce ON nce.lid_desordre = Desordre.id_desordre AND nce.typeobservation = 'NCE' 
+LEFT JOIN Observation as SousObservation ON SousObservation.lid_observation = nca.id_observation 
+AND (SousObservation.item_type_1 = 0 OR SousObservation.item_type_2 = 0 OR SousObservation.item_type_3 = 0 OR SousObservation.item_type_4 = 0 OR SousObservation.item_type_5 = 0 OR SousObservation.item_type_6 = 0 OR SousObservation.item_type_7 = 0 OR SousObservation.item_type_8 = 0 OR SousObservation.item_type_9 = 0 OR SousObservation.item_type_10 = 0 OR SousObservation.item_type_11 = 0 OR SousObservation.item_type_12 = 0 OR SousObservation.item_type_13 = 0 OR SousObservation.item_type_14 = 0 OR SousObservation.item_type_15 = 0 OR SousObservation.item_type_16 = 0 OR SousObservation.item_type_17 = 0 OR SousObservation.item_type_18 = 0 OR SousObservation.item_type_19 = 0 OR SousObservation.item_type_20 = 0 OR SousObservation.item_type_21 = 0 OR SousObservation.item_type_22 = 0 OR SousObservation.item_type_23 = 0 OR SousObservation.item_type_24 = 0 OR SousObservation.item_type_25 = 0 OR SousObservation.item_type_26 = 0 OR SousObservation.item_type_27 = 0 OR SousObservation.item_type_28 = 0 OR SousObservation.item_type_29 = 0 OR SousObservation.item_type_30 = 0 OR SousObservation.item_type_31 = 0 OR SousObservation.item_type_32 = 0 OR SousObservation.item_type_33 = 0 OR SousObservation.item_type_34 = 0 OR SousObservation.item_type_35 = 0 OR SousObservation.item_type_36 = 0 OR SousObservation.item_type_37 = 0 OR SousObservation.item_type_38 = 0 OR SousObservation.item_type_39 = 0 OR SousObservation.item_type_40 = 0)
+GROUP BY Desordre.pk_desordre </t>
   </si>
 </sst>
 </file>
@@ -2267,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,140 +2297,138 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" t="s">
-        <v>236</v>
+      <c r="B1" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>388</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="F3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K3" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="17" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>118</v>
@@ -2426,103 +2436,103 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F22" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="B24" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>257</v>
+      <c r="B26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s">
         <v>118</v>
@@ -2530,15 +2540,15 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
         <v>114</v>
@@ -2546,14 +2556,19 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
@@ -2563,6 +2578,9 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2574,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D190" sqref="D190"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2820,7 +2838,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>108</v>
@@ -2879,10 +2897,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F34" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2891,14 +2909,14 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -3036,19 +3054,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53"/>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B55" t="s">
         <v>118</v>
@@ -3056,7 +3074,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B56" t="s">
         <v>118</v>
@@ -3064,12 +3082,12 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B58" t="s">
         <v>108</v>
@@ -3100,7 +3118,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
         <v>118</v>
@@ -3112,12 +3130,12 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
         <v>108</v>
@@ -3125,7 +3143,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
@@ -3133,7 +3151,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B66" t="s">
         <v>108</v>
@@ -3145,12 +3163,12 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B69" t="s">
         <v>108</v>
@@ -3158,7 +3176,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B70" t="s">
         <v>108</v>
@@ -3166,7 +3184,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" t="s">
         <v>108</v>
@@ -3174,7 +3192,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B72" t="s">
         <v>108</v>
@@ -3182,7 +3200,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
         <v>108</v>
@@ -3190,7 +3208,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B74" t="s">
         <v>108</v>
@@ -3198,7 +3216,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B75" t="s">
         <v>108</v>
@@ -3206,7 +3224,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
@@ -3214,7 +3232,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B77" t="s">
         <v>108</v>
@@ -3222,7 +3240,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
         <v>108</v>
@@ -3230,7 +3248,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s">
         <v>108</v>
@@ -3238,7 +3256,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
@@ -3246,7 +3264,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
@@ -3254,7 +3272,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
@@ -3262,7 +3280,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B83" t="s">
         <v>108</v>
@@ -3270,12 +3288,12 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>108</v>
@@ -3306,7 +3324,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>108</v>
@@ -3335,7 +3353,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>108</v>
@@ -3364,7 +3382,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>108</v>
@@ -3393,7 +3411,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -3422,7 +3440,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B101" s="20" t="s">
         <v>108</v>
@@ -3451,7 +3469,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>108</v>
@@ -3480,7 +3498,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>108</v>
@@ -3509,7 +3527,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>108</v>
@@ -3538,7 +3556,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>108</v>
@@ -3567,7 +3585,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>108</v>
@@ -3596,7 +3614,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>108</v>
@@ -3625,7 +3643,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>108</v>
@@ -3654,7 +3672,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>108</v>
@@ -3683,7 +3701,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>108</v>
@@ -3711,7 +3729,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s">
         <v>118</v>
@@ -3833,7 +3851,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4034,7 +4052,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>130</v>
@@ -4042,7 +4060,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B176" t="s">
         <v>118</v>
@@ -4050,7 +4068,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B178" t="s">
         <v>108</v>
@@ -4058,7 +4076,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B179" t="s">
         <v>108</v>
@@ -4066,7 +4084,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B180" t="s">
         <v>108</v>
@@ -4074,7 +4092,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>130</v>
@@ -4082,7 +4100,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B183" t="s">
         <v>108</v>
@@ -4090,7 +4108,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B184" t="s">
         <v>108</v>
@@ -4098,7 +4116,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B185" t="s">
         <v>108</v>
@@ -4106,7 +4124,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>130</v>
@@ -4114,12 +4132,12 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B189" t="s">
         <v>118</v>
@@ -4127,7 +4145,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B191" s="20" t="s">
         <v>108</v>
@@ -4135,7 +4153,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B192" t="s">
         <v>118</v>
@@ -4143,7 +4161,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>108</v>
@@ -4151,7 +4169,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B194" t="s">
         <v>118</v>
@@ -4159,7 +4177,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B195" s="20" t="s">
         <v>108</v>
@@ -4167,7 +4185,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B196" t="s">
         <v>118</v>
@@ -4175,7 +4193,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>108</v>
@@ -4183,7 +4201,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B198" t="s">
         <v>118</v>
@@ -4191,7 +4209,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B199" s="20" t="s">
         <v>108</v>
@@ -4199,7 +4217,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B200" t="s">
         <v>118</v>
@@ -4207,7 +4225,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B201" s="20" t="s">
         <v>108</v>
@@ -4215,7 +4233,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B202" t="s">
         <v>118</v>
@@ -4223,7 +4241,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B203" s="20" t="s">
         <v>108</v>
@@ -4231,7 +4249,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B204" t="s">
         <v>118</v>
@@ -4239,7 +4257,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B205" s="20" t="s">
         <v>108</v>
@@ -4247,7 +4265,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B206" t="s">
         <v>118</v>
@@ -4255,7 +4273,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B207" s="20" t="s">
         <v>108</v>
@@ -4263,7 +4281,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B208" t="s">
         <v>118</v>
@@ -4271,7 +4289,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B209" s="20" t="s">
         <v>108</v>
@@ -4279,7 +4297,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B210" t="s">
         <v>118</v>
@@ -4287,7 +4305,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B211" s="20" t="s">
         <v>108</v>
@@ -4295,7 +4313,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B212" t="s">
         <v>118</v>
@@ -4303,7 +4321,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>108</v>
@@ -4311,7 +4329,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B214" t="s">
         <v>118</v>
@@ -4319,7 +4337,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B215" s="20" t="s">
         <v>108</v>
@@ -4327,7 +4345,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B216" t="s">
         <v>118</v>
@@ -4335,7 +4353,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B217" s="20" t="s">
         <v>108</v>
@@ -4343,7 +4361,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B218" t="s">
         <v>118</v>
@@ -4351,7 +4369,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>108</v>
@@ -4359,7 +4377,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B220" t="s">
         <v>118</v>
@@ -4367,7 +4385,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B221" s="20" t="s">
         <v>108</v>
@@ -4375,7 +4393,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B222" t="s">
         <v>118</v>
@@ -4383,7 +4401,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B223" s="20" t="s">
         <v>108</v>
@@ -4391,7 +4409,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B224" t="s">
         <v>118</v>
@@ -4399,7 +4417,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B225" s="20" t="s">
         <v>108</v>
@@ -4407,7 +4425,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B226" t="s">
         <v>118</v>
@@ -4415,7 +4433,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B227" s="20" t="s">
         <v>108</v>
@@ -4423,7 +4441,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B228" t="s">
         <v>118</v>
@@ -4431,7 +4449,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B229" s="20" t="s">
         <v>108</v>
@@ -4439,7 +4457,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B230" t="s">
         <v>118</v>
@@ -4447,7 +4465,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B231" s="20" t="s">
         <v>108</v>
@@ -4455,7 +4473,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B232" t="s">
         <v>118</v>
@@ -4463,7 +4481,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B233" s="20" t="s">
         <v>108</v>
@@ -4471,7 +4489,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B234" t="s">
         <v>118</v>
@@ -4479,7 +4497,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B235" s="20" t="s">
         <v>108</v>
@@ -4487,7 +4505,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B236" t="s">
         <v>118</v>
@@ -4495,7 +4513,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B237" s="20" t="s">
         <v>108</v>
@@ -4503,7 +4521,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B238" t="s">
         <v>118</v>
@@ -4511,7 +4529,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B239" s="20" t="s">
         <v>108</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B240" t="s">
         <v>118</v>
@@ -4527,7 +4545,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B241" s="20" t="s">
         <v>108</v>
@@ -4535,7 +4553,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B242" t="s">
         <v>118</v>
@@ -4543,7 +4561,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B243" s="20" t="s">
         <v>108</v>
@@ -4551,7 +4569,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B244" t="s">
         <v>118</v>
@@ -4559,7 +4577,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B245" s="20" t="s">
         <v>108</v>
@@ -4567,7 +4585,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B246" t="s">
         <v>118</v>
@@ -4575,7 +4593,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B247" s="20" t="s">
         <v>108</v>
@@ -4583,7 +4601,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B248" t="s">
         <v>118</v>
@@ -4591,7 +4609,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B249" s="20" t="s">
         <v>108</v>
@@ -4599,7 +4617,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B250" t="s">
         <v>118</v>
@@ -4607,7 +4625,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B251" s="20" t="s">
         <v>108</v>
@@ -4615,7 +4633,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B252" t="s">
         <v>118</v>
@@ -4623,7 +4641,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B253" s="20" t="s">
         <v>108</v>
@@ -4631,7 +4649,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B254" t="s">
         <v>118</v>
@@ -4639,7 +4657,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B255" s="20" t="s">
         <v>108</v>
@@ -4647,7 +4665,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B256" t="s">
         <v>118</v>
@@ -4655,7 +4673,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B257" s="20" t="s">
         <v>108</v>
@@ -4663,7 +4681,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B258" t="s">
         <v>118</v>
@@ -4671,7 +4689,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B259" s="20" t="s">
         <v>108</v>
@@ -4679,7 +4697,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B260" t="s">
         <v>118</v>
@@ -4687,7 +4705,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B261" s="20" t="s">
         <v>108</v>
@@ -4695,7 +4713,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B262" t="s">
         <v>118</v>
@@ -4703,7 +4721,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B263" s="20" t="s">
         <v>108</v>
@@ -4711,7 +4729,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B264" t="s">
         <v>118</v>
@@ -4719,7 +4737,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B265" s="20" t="s">
         <v>108</v>
@@ -4727,7 +4745,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B266" t="s">
         <v>118</v>
@@ -4735,7 +4753,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B267" s="20" t="s">
         <v>108</v>
@@ -4743,7 +4761,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B268" t="s">
         <v>118</v>
@@ -4751,7 +4769,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B269" s="20" t="s">
         <v>108</v>
@@ -4759,7 +4777,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B270" t="s">
         <v>118</v>

--- a/Lamia/DBASE/create/Base2_chantier_0_1.xlsx
+++ b/Lamia/DBASE/create/Base2_chantier_0_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6EFFE9-2DF3-4A31-A58F-E8ABF0541401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F780AE-2F40-453D-8D13-0FBCB45ECF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="04_Observation" sheetId="21" r:id="rId4"/>
     <sheet name="02_Intervenant" sheetId="22" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateCount="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="514">
   <si>
     <t>00_Basedonnees'!A1</t>
   </si>
@@ -1209,18 +1209,404 @@
 AND (SousObservation.item_type_1 = 0 OR SousObservation.item_type_2 = 0 OR SousObservation.item_type_3 = 0 OR SousObservation.item_type_4 = 0 OR SousObservation.item_type_5 = 0 OR SousObservation.item_type_6 = 0 OR SousObservation.item_type_7 = 0 OR SousObservation.item_type_8 = 0 OR SousObservation.item_type_9 = 0 OR SousObservation.item_type_10 = 0 OR SousObservation.item_type_11 = 0 OR SousObservation.item_type_12 = 0 OR SousObservation.item_type_13 = 0 OR SousObservation.item_type_14 = 0 OR SousObservation.item_type_15 = 0 OR SousObservation.item_type_16 = 0 OR SousObservation.item_type_17 = 0 OR SousObservation.item_type_18 = 0 OR SousObservation.item_type_19 = 0 OR SousObservation.item_type_20 = 0 OR SousObservation.item_type_21 = 0 OR SousObservation.item_type_22 = 0 OR SousObservation.item_type_23 = 0 OR SousObservation.item_type_24 = 0 OR SousObservation.item_type_25 = 0 OR SousObservation.item_type_26 = 0 OR SousObservation.item_type_27 = 0 OR SousObservation.item_type_28 = 0 OR SousObservation.item_type_29 = 0 OR SousObservation.item_type_30 = 0 OR SousObservation.item_type_31 = 0 OR SousObservation.item_type_32 = 0 OR SousObservation.item_type_33 = 0 OR SousObservation.item_type_34 = 0 OR SousObservation.item_type_35 = 0 OR SousObservation.item_type_36 = 0 OR SousObservation.item_type_37 = 0 OR SousObservation.item_type_38 = 0 OR SousObservation.item_type_39 = 0 OR SousObservation.item_type_40 = 0)
 GROUP BY Desordre.pk_desordre </t>
   </si>
+  <si>
+    <t>N070GAY_S01A</t>
+  </si>
+  <si>
+    <t>N070GAY_S01B</t>
+  </si>
+  <si>
+    <t>N070GAY_S01C</t>
+  </si>
+  <si>
+    <t>N070GAY_S01D</t>
+  </si>
+  <si>
+    <t>N070GAY_S01E</t>
+  </si>
+  <si>
+    <t>N070GAY_S01F</t>
+  </si>
+  <si>
+    <t>N070GAY_S01G</t>
+  </si>
+  <si>
+    <t>N070GAY_S01H</t>
+  </si>
+  <si>
+    <t>N070RIO_S02A</t>
+  </si>
+  <si>
+    <t>N070RIO_S02B</t>
+  </si>
+  <si>
+    <t>N070RIO_S02C</t>
+  </si>
+  <si>
+    <t>N070RIO_S02D</t>
+  </si>
+  <si>
+    <t>N070RIO_S02E</t>
+  </si>
+  <si>
+    <t>N070RIO_S02F</t>
+  </si>
+  <si>
+    <t>N070RIO_S02G</t>
+  </si>
+  <si>
+    <t>N070RIO_S02I</t>
+  </si>
+  <si>
+    <t>N070RIO_S02J</t>
+  </si>
+  <si>
+    <t>N070GAY_S03I</t>
+  </si>
+  <si>
+    <t>N070GAY_S03J</t>
+  </si>
+  <si>
+    <t>N070GAY_S03K</t>
+  </si>
+  <si>
+    <t>N070GAY_S03L</t>
+  </si>
+  <si>
+    <t>N070GAY_S03M</t>
+  </si>
+  <si>
+    <t>N070GAY_S03N</t>
+  </si>
+  <si>
+    <t>N070LUR_S04A</t>
+  </si>
+  <si>
+    <t>N070LUR_S04B</t>
+  </si>
+  <si>
+    <t>N070LUR_S04C</t>
+  </si>
+  <si>
+    <t>N070LUR_S04D</t>
+  </si>
+  <si>
+    <t>N070LUR_S04E</t>
+  </si>
+  <si>
+    <t>N070LUR_S04F</t>
+  </si>
+  <si>
+    <t>N070LUR_S04G</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05A</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05B</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05C</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05D</t>
+  </si>
+  <si>
+    <t>N070VSX_S05A</t>
+  </si>
+  <si>
+    <t>N070VSX_S05B</t>
+  </si>
+  <si>
+    <t>N070VSX_S05C</t>
+  </si>
+  <si>
+    <t>N070VSX_S05E</t>
+  </si>
+  <si>
+    <t>N070GAY_S06O</t>
+  </si>
+  <si>
+    <t>N070GAY_S06P</t>
+  </si>
+  <si>
+    <t>N070GAY_S06Q</t>
+  </si>
+  <si>
+    <t>N070GAY_S06R</t>
+  </si>
+  <si>
+    <t>N070GAY_S06S</t>
+  </si>
+  <si>
+    <t>N070GAY_S061</t>
+  </si>
+  <si>
+    <t>N070MNY_S07A</t>
+  </si>
+  <si>
+    <t>N070MNY_S07B</t>
+  </si>
+  <si>
+    <t>N070MNY_S07C</t>
+  </si>
+  <si>
+    <t>N070MNY_S07D</t>
+  </si>
+  <si>
+    <t>N070MNY_S07E</t>
+  </si>
+  <si>
+    <t>N070MNY_S07F</t>
+  </si>
+  <si>
+    <t>N070MNY_S07G</t>
+  </si>
+  <si>
+    <t>N070PSM_S07A</t>
+  </si>
+  <si>
+    <t>N070PSM_S07B</t>
+  </si>
+  <si>
+    <t>N070PSM_S07D</t>
+  </si>
+  <si>
+    <t>N070LUR_S08H</t>
+  </si>
+  <si>
+    <t>N070LUR_S08I</t>
+  </si>
+  <si>
+    <t>N070LUR_S08J</t>
+  </si>
+  <si>
+    <t>N070LUR_S08K</t>
+  </si>
+  <si>
+    <t>N070LUR_S08L</t>
+  </si>
+  <si>
+    <t>N070LUR_S08M</t>
+  </si>
+  <si>
+    <t>N070LUR_S08W</t>
+  </si>
+  <si>
+    <t>N070LYO_S08A</t>
+  </si>
+  <si>
+    <t>N070LYO_S30B</t>
+  </si>
+  <si>
+    <t>N070PSS_S09A</t>
+  </si>
+  <si>
+    <t>N070PSS_S09B</t>
+  </si>
+  <si>
+    <t>N070PSS_S09C</t>
+  </si>
+  <si>
+    <t>N070PSS_S09D</t>
+  </si>
+  <si>
+    <t>N070PSS_S09E</t>
+  </si>
+  <si>
+    <t>N070PSS_S09F</t>
+  </si>
+  <si>
+    <t>N070PSS_S09G</t>
+  </si>
+  <si>
+    <t>N070PSS_S09I</t>
+  </si>
+  <si>
+    <t>N070SCE_S09A</t>
+  </si>
+  <si>
+    <t>N070SCE_S09B</t>
+  </si>
+  <si>
+    <t>N070SCE_S09C</t>
+  </si>
+  <si>
+    <t>N070SCE_S25D</t>
+  </si>
+  <si>
+    <t>N070SLP_S10A</t>
+  </si>
+  <si>
+    <t>N070SLP_S10B</t>
+  </si>
+  <si>
+    <t>N070SLP_S10C</t>
+  </si>
+  <si>
+    <t>N070SLP_S10D</t>
+  </si>
+  <si>
+    <t>N070SLP_S10E</t>
+  </si>
+  <si>
+    <t>N070SLP_S10F</t>
+  </si>
+  <si>
+    <t>N070SLP_S10G</t>
+  </si>
+  <si>
+    <t>N070SLP_S10H</t>
+  </si>
+  <si>
+    <t>N070SLP_S10I</t>
+  </si>
+  <si>
+    <t>N070LUX_S11H</t>
+  </si>
+  <si>
+    <t>N070LUX_S11I</t>
+  </si>
+  <si>
+    <t>N070LUX_S11J</t>
+  </si>
+  <si>
+    <t>N070LUX_S11K</t>
+  </si>
+  <si>
+    <t>N070LUX_S11L</t>
+  </si>
+  <si>
+    <t>N070LUX_S11M</t>
+  </si>
+  <si>
+    <t>N070LUX_S11N</t>
+  </si>
+  <si>
+    <t>N070LUX_S12A</t>
+  </si>
+  <si>
+    <t>N070LUX_S12B</t>
+  </si>
+  <si>
+    <t>N070LUX_S12C</t>
+  </si>
+  <si>
+    <t>N070LUX_S12D</t>
+  </si>
+  <si>
+    <t>N070LUX_S12E</t>
+  </si>
+  <si>
+    <t>N070LUX_S12F</t>
+  </si>
+  <si>
+    <t>N070LUX_S12G</t>
+  </si>
+  <si>
+    <t>N070HCT_S13O</t>
+  </si>
+  <si>
+    <t>N070HCT_S13P</t>
+  </si>
+  <si>
+    <t>N070HCT_S13Q</t>
+  </si>
+  <si>
+    <t>N070HCT_S13R</t>
+  </si>
+  <si>
+    <t>N070HCT_S13S</t>
+  </si>
+  <si>
+    <t>N070HCT_S13T</t>
+  </si>
+  <si>
+    <t>N070HCT_S13U</t>
+  </si>
+  <si>
+    <t>N070HCT_S14I</t>
+  </si>
+  <si>
+    <t>N070HCT_S14J</t>
+  </si>
+  <si>
+    <t>N070HCT_S14K</t>
+  </si>
+  <si>
+    <t>N070HCT_S14L</t>
+  </si>
+  <si>
+    <t>N070HCT_S14M</t>
+  </si>
+  <si>
+    <t>N070HCT_S14N</t>
+  </si>
+  <si>
+    <t>N070HCT_S15A</t>
+  </si>
+  <si>
+    <t>N070HCT_S15B</t>
+  </si>
+  <si>
+    <t>N070HCT_S15C</t>
+  </si>
+  <si>
+    <t>N070HCT_S15D</t>
+  </si>
+  <si>
+    <t>N070HCT_S15E</t>
+  </si>
+  <si>
+    <t>N070HCT_S15F</t>
+  </si>
+  <si>
+    <t>N070HCT_S15G</t>
+  </si>
+  <si>
+    <t>N070HCT_S15H</t>
+  </si>
+  <si>
+    <t>nca_mandataire</t>
+  </si>
+  <si>
+    <t>CIRCET</t>
+  </si>
+  <si>
+    <t>INEO</t>
+  </si>
+  <si>
+    <t>SOGETREL</t>
+  </si>
+  <si>
+    <t>AXIANS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1355,38 +1741,40 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -2279,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>254</v>
       </c>
@@ -2562,25 +2950,967 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>265</v>
       </c>
       <c r="B34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F34" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
+      <c r="F38" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F84" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F87" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F95" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F96" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F99" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F102" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F103" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F104" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F105" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F106" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F107" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F108" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F109" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F112" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F121" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F122" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F123" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F124" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F125" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F126" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F127" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F128" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F130" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F132" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F133" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F134" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F135" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F136" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F137" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F138" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F139" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F140" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F141" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F142" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F143" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F144" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F145" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F146" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F147" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F148" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F149" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F150" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F151" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F152" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>508</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2590,10 +3920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,15 +3933,18 @@
     <col min="9" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>94</v>
       </c>
       <c r="F1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2636,8 +3969,17 @@
       <c r="H2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
@@ -2649,7 +3991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
@@ -2661,7 +4003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -2675,7 +4017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>129</v>
       </c>
@@ -2683,7 +4025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -2691,7 +4033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>
@@ -2699,7 +4041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
@@ -2710,7 +4052,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="3" t="s">
         <v>135</v>
       </c>
@@ -2718,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="3" t="s">
         <v>136</v>
       </c>
@@ -2726,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="3" t="s">
         <v>137</v>
       </c>
@@ -2734,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>138</v>
       </c>
@@ -2742,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -2750,7 +4092,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
@@ -3014,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49"/>
       <c r="F49" s="7" t="s">
@@ -3024,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50"/>
       <c r="F50" s="7" t="s">
@@ -3034,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>194</v>
       </c>
@@ -3043,7 +4385,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>195</v>
       </c>
@@ -3052,19 +4394,19 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="B53"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>267</v>
       </c>
@@ -3072,191 +4414,194 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57"/>
+      <c r="I57" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="J57" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58"/>
+      <c r="I58" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="J58" s="22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59"/>
+      <c r="I59" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="J59" s="22" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60"/>
+      <c r="I60" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="J60" s="22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B58" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="21" t="s">
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59"/>
-      <c r="F59" s="20" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66"/>
+      <c r="F66" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60"/>
-      <c r="F60" s="20" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67"/>
+      <c r="F67" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G67" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
+      <c r="B71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="B65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="B66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
-      <c r="B67"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+      <c r="B76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="B70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B72" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
         <v>277</v>
-      </c>
-      <c r="B73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="B74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="B77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="B80" t="s">
         <v>108</v>
@@ -3264,7 +4609,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
@@ -3272,7 +4617,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B82" t="s">
         <v>108</v>
@@ -3280,1506 +4625,1562 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
-        <v>260</v>
+        <v>282</v>
+      </c>
+      <c r="B85" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F86" s="21" t="s">
-        <v>197</v>
+        <v>283</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
-      <c r="F87" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
+      <c r="A87" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
-      <c r="F88" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G88" s="3">
-        <v>1</v>
+      <c r="A88" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>197</v>
+        <v>286</v>
+      </c>
+      <c r="B89" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
-      <c r="F90" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="F91" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G91" s="3">
-        <v>1</v>
+      <c r="A90" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F92" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
-      <c r="F93" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G93" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
       <c r="F94" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="F95" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G95" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F95" s="21" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
-      <c r="F96" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="F97" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+      <c r="F98" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G98" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B98" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F98" s="21" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
-      <c r="F99" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="F100" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+      <c r="F101" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G101" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="B101" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F101" s="21" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="F102" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="F103" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+      <c r="F104" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G104" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F104" s="21" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
-      <c r="F105" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="F106" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+      <c r="F107" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G107" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="B107" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F107" s="21" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="F108" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G108" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="F109" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
+      <c r="F110" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G110" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="B110" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F110" s="21" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
-      <c r="F111" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G111" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="F112" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+      <c r="F113" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G113" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F113" s="21" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F114" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="F114" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="F115" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+      <c r="F116" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G116" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F116" s="21" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F117" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="F117" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="F118" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+      <c r="F119" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G119" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F119" s="21" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F120" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
-      <c r="F120" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G120" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="F121" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="20"/>
+      <c r="F122" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G122" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F122" s="21" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F123" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
-      <c r="F123" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G123" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="F124" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+      <c r="F125" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G125" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F125" s="21" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126" s="21" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
-      <c r="F126" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G126" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="F127" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="20"/>
+      <c r="F128" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G128" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+      <c r="F130" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+      <c r="F131" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+      <c r="F133" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+      <c r="F134" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B128" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F128" s="21" t="s">
+      <c r="B135" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
-      <c r="F129" s="20" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+      <c r="F136" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="G129" s="3">
+      <c r="G136" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F130" s="20" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F137" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="G130" s="3">
+      <c r="G137" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="B131" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="7"/>
-      <c r="B132"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="7"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+      <c r="B138" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="B139"/>
+      <c r="F139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D134" s="7" t="s">
+      <c r="B141" t="s">
+        <v>108</v>
+      </c>
+      <c r="D141" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" s="7" t="s">
+      <c r="B142" t="s">
+        <v>108</v>
+      </c>
+      <c r="D142" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="7"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B137" t="s">
-        <v>108</v>
-      </c>
-      <c r="D137" s="12" t="s">
+      <c r="B144" t="s">
+        <v>108</v>
+      </c>
+      <c r="D144" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B138" t="s">
-        <v>108</v>
-      </c>
-      <c r="D138" s="7" t="s">
+      <c r="B145" t="s">
+        <v>108</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" s="7" t="s">
+      <c r="B147" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B141" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" s="7" t="s">
+      <c r="B148" t="s">
+        <v>108</v>
+      </c>
+      <c r="D148" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="20" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="12"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="12"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="16" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B149" t="s">
-        <v>108</v>
-      </c>
-      <c r="F149" s="11" t="s">
+      <c r="B156" t="s">
+        <v>108</v>
+      </c>
+      <c r="F156" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G149" s="3">
+      <c r="G156" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F150" s="10" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F157" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G150" s="3">
+      <c r="G157" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F151" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G151" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B154" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B155" t="s">
-        <v>108</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B157" t="s">
-        <v>108</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G157" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F158" s="10" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G158" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F159" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G159" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B160" t="s">
-        <v>118</v>
+        <v>212</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>130</v>
+        <v>213</v>
+      </c>
+      <c r="B161" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="10"/>
-      <c r="B162"/>
-      <c r="D162" s="7"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B163" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="F163" s="13" t="s">
+      <c r="A162" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B162" t="s">
+        <v>108</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" t="s">
+        <v>108</v>
+      </c>
+      <c r="F164" s="11" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164"/>
-      <c r="D164" s="7"/>
-      <c r="F164" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="G164" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165"/>
-      <c r="D165" s="7"/>
-      <c r="F165" s="12" t="s">
-        <v>228</v>
+      <c r="F165" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="G165" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
-      <c r="B166"/>
-      <c r="D166" s="7"/>
+      <c r="F166" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G166" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B167" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="10"/>
+      <c r="B169"/>
+      <c r="D169" s="7"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" t="s">
+        <v>108</v>
+      </c>
+      <c r="D170" s="7"/>
+      <c r="F170" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="12"/>
+      <c r="B171"/>
+      <c r="D171" s="7"/>
+      <c r="F171" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="12"/>
+      <c r="B172"/>
+      <c r="D172" s="7"/>
+      <c r="F172" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="12"/>
+      <c r="B173"/>
+      <c r="D173" s="7"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B167" t="s">
-        <v>118</v>
-      </c>
-      <c r="D167" s="7"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="16" t="s">
+      <c r="B174" t="s">
+        <v>118</v>
+      </c>
+      <c r="D174" s="7"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B169" t="s">
-        <v>108</v>
-      </c>
-      <c r="F169" s="13" t="s">
+      <c r="B176" t="s">
+        <v>108</v>
+      </c>
+      <c r="F176" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F170" s="12" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F177" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G170" s="3">
+      <c r="G177" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F171" s="12" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F178" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G171" s="3">
+      <c r="G178" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B172" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+      <c r="B179" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="17" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="17" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B176" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
+      <c r="B183" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="B178" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="17" t="s">
+      <c r="B185" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="B179" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="17" t="s">
+      <c r="B186" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B180" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="17" t="s">
+      <c r="B187" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="17" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B183" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="17" t="s">
+      <c r="B190" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B184" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="17" t="s">
+      <c r="B191" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B185" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="17" t="s">
+      <c r="B192" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="B189" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="B192" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="B194" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B196" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B198" t="s">
-        <v>118</v>
+        <v>308</v>
+      </c>
+      <c r="B198" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>108</v>
+        <v>309</v>
+      </c>
+      <c r="B199" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B200" t="s">
-        <v>118</v>
+        <v>310</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>108</v>
+        <v>312</v>
+      </c>
+      <c r="B201" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B202" t="s">
-        <v>118</v>
+        <v>313</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>108</v>
+        <v>311</v>
+      </c>
+      <c r="B203" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="B204" t="s">
-        <v>118</v>
+        <v>314</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>108</v>
+        <v>315</v>
+      </c>
+      <c r="B205" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="B206" t="s">
-        <v>118</v>
+        <v>316</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>108</v>
+        <v>317</v>
+      </c>
+      <c r="B207" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B208" t="s">
-        <v>118</v>
+        <v>318</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>108</v>
+        <v>319</v>
+      </c>
+      <c r="B209" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B210" t="s">
-        <v>118</v>
+        <v>320</v>
+      </c>
+      <c r="B210" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="B211" s="20" t="s">
-        <v>108</v>
+        <v>321</v>
+      </c>
+      <c r="B211" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="B212" t="s">
-        <v>118</v>
+        <v>322</v>
+      </c>
+      <c r="B212" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="B213" s="20" t="s">
-        <v>108</v>
+        <v>323</v>
+      </c>
+      <c r="B213" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="B214" t="s">
-        <v>118</v>
+        <v>324</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B215" s="20" t="s">
-        <v>108</v>
+        <v>325</v>
+      </c>
+      <c r="B215" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B216" t="s">
-        <v>118</v>
+        <v>326</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="B217" s="20" t="s">
-        <v>108</v>
+        <v>327</v>
+      </c>
+      <c r="B217" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="B218" t="s">
-        <v>118</v>
+        <v>328</v>
+      </c>
+      <c r="B218" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="B219" s="20" t="s">
-        <v>108</v>
+        <v>329</v>
+      </c>
+      <c r="B219" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="B220" t="s">
-        <v>118</v>
+        <v>330</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B221" s="20" t="s">
-        <v>108</v>
+        <v>331</v>
+      </c>
+      <c r="B221" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="B222" t="s">
-        <v>118</v>
+        <v>332</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="B223" s="20" t="s">
-        <v>108</v>
+        <v>333</v>
+      </c>
+      <c r="B223" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="B224" t="s">
-        <v>118</v>
+        <v>334</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="B225" s="20" t="s">
-        <v>108</v>
+        <v>335</v>
+      </c>
+      <c r="B225" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="B226" t="s">
-        <v>118</v>
+        <v>336</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="B227" s="20" t="s">
-        <v>108</v>
+        <v>337</v>
+      </c>
+      <c r="B227" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B228" t="s">
-        <v>118</v>
+        <v>338</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="B229" s="20" t="s">
-        <v>108</v>
+        <v>339</v>
+      </c>
+      <c r="B229" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="B230" t="s">
-        <v>118</v>
+        <v>340</v>
+      </c>
+      <c r="B230" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B231" s="20" t="s">
-        <v>108</v>
+        <v>341</v>
+      </c>
+      <c r="B231" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B232" t="s">
-        <v>118</v>
+        <v>342</v>
+      </c>
+      <c r="B232" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>108</v>
+        <v>343</v>
+      </c>
+      <c r="B233" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="B234" t="s">
-        <v>118</v>
+        <v>344</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>108</v>
+        <v>345</v>
+      </c>
+      <c r="B235" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="B236" t="s">
-        <v>118</v>
+        <v>346</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="B237" s="20" t="s">
-        <v>108</v>
+        <v>347</v>
+      </c>
+      <c r="B237" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B238" t="s">
-        <v>118</v>
+        <v>348</v>
+      </c>
+      <c r="B238" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="B239" s="20" t="s">
-        <v>108</v>
+        <v>349</v>
+      </c>
+      <c r="B239" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="B240" t="s">
-        <v>118</v>
+        <v>350</v>
+      </c>
+      <c r="B240" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="B241" s="20" t="s">
-        <v>108</v>
+        <v>351</v>
+      </c>
+      <c r="B241" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="B242" t="s">
-        <v>118</v>
+        <v>352</v>
+      </c>
+      <c r="B242" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>108</v>
+        <v>353</v>
+      </c>
+      <c r="B243" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="B244" t="s">
-        <v>118</v>
+        <v>354</v>
+      </c>
+      <c r="B244" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="B245" s="20" t="s">
-        <v>108</v>
+        <v>355</v>
+      </c>
+      <c r="B245" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="B246" t="s">
-        <v>118</v>
+        <v>356</v>
+      </c>
+      <c r="B246" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="B247" s="20" t="s">
-        <v>108</v>
+        <v>357</v>
+      </c>
+      <c r="B247" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B248" t="s">
-        <v>118</v>
+        <v>358</v>
+      </c>
+      <c r="B248" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="B249" s="20" t="s">
-        <v>108</v>
+        <v>359</v>
+      </c>
+      <c r="B249" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="B250" t="s">
-        <v>118</v>
+        <v>360</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="B251" s="20" t="s">
-        <v>108</v>
+        <v>361</v>
+      </c>
+      <c r="B251" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="B252" t="s">
-        <v>118</v>
+        <v>362</v>
+      </c>
+      <c r="B252" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="B253" s="20" t="s">
-        <v>108</v>
+        <v>363</v>
+      </c>
+      <c r="B253" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="B254" t="s">
-        <v>118</v>
+        <v>364</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="B255" s="20" t="s">
-        <v>108</v>
+        <v>365</v>
+      </c>
+      <c r="B255" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="B256" t="s">
-        <v>118</v>
+        <v>366</v>
+      </c>
+      <c r="B256" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B257" s="20" t="s">
-        <v>108</v>
+        <v>367</v>
+      </c>
+      <c r="B257" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="B258" t="s">
-        <v>118</v>
+        <v>368</v>
+      </c>
+      <c r="B258" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="B259" s="20" t="s">
-        <v>108</v>
+        <v>369</v>
+      </c>
+      <c r="B259" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="B260" t="s">
-        <v>118</v>
+        <v>370</v>
+      </c>
+      <c r="B260" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="B261" s="20" t="s">
-        <v>108</v>
+        <v>371</v>
+      </c>
+      <c r="B261" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="B262" t="s">
-        <v>118</v>
+        <v>372</v>
+      </c>
+      <c r="B262" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="B263" s="20" t="s">
-        <v>108</v>
+        <v>373</v>
+      </c>
+      <c r="B263" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="B264" t="s">
-        <v>118</v>
+        <v>374</v>
+      </c>
+      <c r="B264" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="B265" s="20" t="s">
-        <v>108</v>
+        <v>375</v>
+      </c>
+      <c r="B265" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="B266" t="s">
-        <v>118</v>
+        <v>376</v>
+      </c>
+      <c r="B266" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="B267" s="20" t="s">
-        <v>108</v>
+        <v>377</v>
+      </c>
+      <c r="B267" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="B268" t="s">
-        <v>118</v>
+        <v>378</v>
+      </c>
+      <c r="B268" s="20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="B269" s="20" t="s">
-        <v>108</v>
+        <v>379</v>
+      </c>
+      <c r="B269" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B270" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="B271" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B273" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B274" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B275" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="B276" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B277" t="s">
         <v>118</v>
       </c>
     </row>

--- a/Lamia/DBASE/create/Base2_chantier_0_1.xlsx
+++ b/Lamia/DBASE/create/Base2_chantier_0_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patrice.verchere\PycharmProjects\Lamia\Lamia\DBASE\create\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\111_GitProjects\Lamia\Lamia\DBASE\create\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F780AE-2F40-453D-8D13-0FBCB45ECF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1DCF0-012C-4C62-8532-739C24EC427E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9240" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="767" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -1195,10 +1195,382 @@
     <t>item_obs_40</t>
   </si>
   <si>
-    <t># SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet LEFT JOIN Observation as nca ON nca.lid_desordre = Desordre.id_desordre AND nca.typeobservation = 'NCA' LEFT JOIN Observation as ncb ON ncb.lid_desordre = Desordre.id_desordre AND ncb.typeobservation = 'NCB'  LEFT JOIN Observation as ncc ON ncc.lid_desordre = Desordre.id_desordre AND ncc.typeobservation = 'NCC' LEFT JOIN Observation as ncd ON ncd.lid_desordre = Desordre.id_desordre AND ncd.typeobservation = 'NCD'  LEFT JOIN Observation as nce ON nce.lid_desordre = Desordre.id_desordre AND nce.typeobservation = 'NCE' GROUP BY Desordre.pk_desordre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  ,COUNT(SousObservation.pk_observation) as ncassfichenonconf
+    <t>N070GAY_S01A</t>
+  </si>
+  <si>
+    <t>N070GAY_S01B</t>
+  </si>
+  <si>
+    <t>N070GAY_S01C</t>
+  </si>
+  <si>
+    <t>N070GAY_S01D</t>
+  </si>
+  <si>
+    <t>N070GAY_S01E</t>
+  </si>
+  <si>
+    <t>N070GAY_S01F</t>
+  </si>
+  <si>
+    <t>N070GAY_S01G</t>
+  </si>
+  <si>
+    <t>N070GAY_S01H</t>
+  </si>
+  <si>
+    <t>N070RIO_S02A</t>
+  </si>
+  <si>
+    <t>N070RIO_S02B</t>
+  </si>
+  <si>
+    <t>N070RIO_S02C</t>
+  </si>
+  <si>
+    <t>N070RIO_S02D</t>
+  </si>
+  <si>
+    <t>N070RIO_S02E</t>
+  </si>
+  <si>
+    <t>N070RIO_S02F</t>
+  </si>
+  <si>
+    <t>N070RIO_S02G</t>
+  </si>
+  <si>
+    <t>N070RIO_S02I</t>
+  </si>
+  <si>
+    <t>N070RIO_S02J</t>
+  </si>
+  <si>
+    <t>N070GAY_S03I</t>
+  </si>
+  <si>
+    <t>N070GAY_S03J</t>
+  </si>
+  <si>
+    <t>N070GAY_S03K</t>
+  </si>
+  <si>
+    <t>N070GAY_S03L</t>
+  </si>
+  <si>
+    <t>N070GAY_S03M</t>
+  </si>
+  <si>
+    <t>N070GAY_S03N</t>
+  </si>
+  <si>
+    <t>N070LUR_S04A</t>
+  </si>
+  <si>
+    <t>N070LUR_S04B</t>
+  </si>
+  <si>
+    <t>N070LUR_S04C</t>
+  </si>
+  <si>
+    <t>N070LUR_S04D</t>
+  </si>
+  <si>
+    <t>N070LUR_S04E</t>
+  </si>
+  <si>
+    <t>N070LUR_S04F</t>
+  </si>
+  <si>
+    <t>N070LUR_S04G</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05A</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05B</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05C</t>
+  </si>
+  <si>
+    <t>N070ETZ_S05D</t>
+  </si>
+  <si>
+    <t>N070VSX_S05A</t>
+  </si>
+  <si>
+    <t>N070VSX_S05B</t>
+  </si>
+  <si>
+    <t>N070VSX_S05C</t>
+  </si>
+  <si>
+    <t>N070VSX_S05E</t>
+  </si>
+  <si>
+    <t>N070GAY_S06O</t>
+  </si>
+  <si>
+    <t>N070GAY_S06P</t>
+  </si>
+  <si>
+    <t>N070GAY_S06Q</t>
+  </si>
+  <si>
+    <t>N070GAY_S06R</t>
+  </si>
+  <si>
+    <t>N070GAY_S06S</t>
+  </si>
+  <si>
+    <t>N070GAY_S061</t>
+  </si>
+  <si>
+    <t>N070MNY_S07A</t>
+  </si>
+  <si>
+    <t>N070MNY_S07B</t>
+  </si>
+  <si>
+    <t>N070MNY_S07C</t>
+  </si>
+  <si>
+    <t>N070MNY_S07D</t>
+  </si>
+  <si>
+    <t>N070MNY_S07E</t>
+  </si>
+  <si>
+    <t>N070MNY_S07F</t>
+  </si>
+  <si>
+    <t>N070MNY_S07G</t>
+  </si>
+  <si>
+    <t>N070PSM_S07A</t>
+  </si>
+  <si>
+    <t>N070PSM_S07B</t>
+  </si>
+  <si>
+    <t>N070PSM_S07D</t>
+  </si>
+  <si>
+    <t>N070LUR_S08H</t>
+  </si>
+  <si>
+    <t>N070LUR_S08I</t>
+  </si>
+  <si>
+    <t>N070LUR_S08J</t>
+  </si>
+  <si>
+    <t>N070LUR_S08K</t>
+  </si>
+  <si>
+    <t>N070LUR_S08L</t>
+  </si>
+  <si>
+    <t>N070LUR_S08M</t>
+  </si>
+  <si>
+    <t>N070LUR_S08W</t>
+  </si>
+  <si>
+    <t>N070LYO_S08A</t>
+  </si>
+  <si>
+    <t>N070LYO_S30B</t>
+  </si>
+  <si>
+    <t>N070PSS_S09A</t>
+  </si>
+  <si>
+    <t>N070PSS_S09B</t>
+  </si>
+  <si>
+    <t>N070PSS_S09C</t>
+  </si>
+  <si>
+    <t>N070PSS_S09D</t>
+  </si>
+  <si>
+    <t>N070PSS_S09E</t>
+  </si>
+  <si>
+    <t>N070PSS_S09F</t>
+  </si>
+  <si>
+    <t>N070PSS_S09G</t>
+  </si>
+  <si>
+    <t>N070PSS_S09I</t>
+  </si>
+  <si>
+    <t>N070SCE_S09A</t>
+  </si>
+  <si>
+    <t>N070SCE_S09B</t>
+  </si>
+  <si>
+    <t>N070SCE_S09C</t>
+  </si>
+  <si>
+    <t>N070SCE_S25D</t>
+  </si>
+  <si>
+    <t>N070SLP_S10A</t>
+  </si>
+  <si>
+    <t>N070SLP_S10B</t>
+  </si>
+  <si>
+    <t>N070SLP_S10C</t>
+  </si>
+  <si>
+    <t>N070SLP_S10D</t>
+  </si>
+  <si>
+    <t>N070SLP_S10E</t>
+  </si>
+  <si>
+    <t>N070SLP_S10F</t>
+  </si>
+  <si>
+    <t>N070SLP_S10G</t>
+  </si>
+  <si>
+    <t>N070SLP_S10H</t>
+  </si>
+  <si>
+    <t>N070SLP_S10I</t>
+  </si>
+  <si>
+    <t>N070LUX_S11H</t>
+  </si>
+  <si>
+    <t>N070LUX_S11I</t>
+  </si>
+  <si>
+    <t>N070LUX_S11J</t>
+  </si>
+  <si>
+    <t>N070LUX_S11K</t>
+  </si>
+  <si>
+    <t>N070LUX_S11L</t>
+  </si>
+  <si>
+    <t>N070LUX_S11M</t>
+  </si>
+  <si>
+    <t>N070LUX_S11N</t>
+  </si>
+  <si>
+    <t>N070LUX_S12A</t>
+  </si>
+  <si>
+    <t>N070LUX_S12B</t>
+  </si>
+  <si>
+    <t>N070LUX_S12C</t>
+  </si>
+  <si>
+    <t>N070LUX_S12D</t>
+  </si>
+  <si>
+    <t>N070LUX_S12E</t>
+  </si>
+  <si>
+    <t>N070LUX_S12F</t>
+  </si>
+  <si>
+    <t>N070LUX_S12G</t>
+  </si>
+  <si>
+    <t>N070HCT_S13O</t>
+  </si>
+  <si>
+    <t>N070HCT_S13P</t>
+  </si>
+  <si>
+    <t>N070HCT_S13Q</t>
+  </si>
+  <si>
+    <t>N070HCT_S13R</t>
+  </si>
+  <si>
+    <t>N070HCT_S13S</t>
+  </si>
+  <si>
+    <t>N070HCT_S13T</t>
+  </si>
+  <si>
+    <t>N070HCT_S13U</t>
+  </si>
+  <si>
+    <t>N070HCT_S14I</t>
+  </si>
+  <si>
+    <t>N070HCT_S14J</t>
+  </si>
+  <si>
+    <t>N070HCT_S14K</t>
+  </si>
+  <si>
+    <t>N070HCT_S14L</t>
+  </si>
+  <si>
+    <t>N070HCT_S14M</t>
+  </si>
+  <si>
+    <t>N070HCT_S14N</t>
+  </si>
+  <si>
+    <t>N070HCT_S15A</t>
+  </si>
+  <si>
+    <t>N070HCT_S15B</t>
+  </si>
+  <si>
+    <t>N070HCT_S15C</t>
+  </si>
+  <si>
+    <t>N070HCT_S15D</t>
+  </si>
+  <si>
+    <t>N070HCT_S15E</t>
+  </si>
+  <si>
+    <t>N070HCT_S15F</t>
+  </si>
+  <si>
+    <t>N070HCT_S15G</t>
+  </si>
+  <si>
+    <t>N070HCT_S15H</t>
+  </si>
+  <si>
+    <t>nca_mandataire</t>
+  </si>
+  <si>
+    <t>CIRCET</t>
+  </si>
+  <si>
+    <t>INEO</t>
+  </si>
+  <si>
+    <t>SOGETREL</t>
+  </si>
+  <si>
+    <t>AXIANS</t>
+  </si>
+  <si>
+    <t># SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet LEFT JOIN Observation as nca ON nca.lid_desordre = Desordre.id_desordre AND nca.typeobservation = 'NCA' LEFT JOIN Observation as ncb ON ncb.lid_desordre = Desordre.id_desordre AND ncb.typeobservation = 'NCB'  LEFT JOIN Observation as ncc ON ncc.lid_desordre = Desordre.id_desordre AND ncc.typeobservation = 'NCC' LEFT JOIN Observation as ncd ON ncd.lid_desordre = Desordre.id_desordre AND ncd.typeobservation = 'NCD'  LEFT JOIN Observation as nce ON nce.lid_desordre = Desordre.id_desordre AND nce.typeobservation = 'NCE' GROUP BY Desordre.pk_desordre,  Objet.pk_objet</t>
+  </si>
+  <si>
+    <t>SELECT  Desordre.* , Objet.*, COUNT(nca.pk_observation) as ncacount, COUNT(ncb.pk_observation) as ncbcount , COUNT(ncc.pk_observation) as ncccount  ,COUNT(SousObservation.pk_observation) as ncassfichenonconf
 FROM Desordre INNER JOIN Objet ON Desordre.lpk_objet = Objet.pk_objet 
 LEFT JOIN Observation as nca ON nca.lid_desordre = Desordre.id_desordre AND nca.typeobservation = 'NCA' 
 LEFT JOIN Observation as ncb ON ncb.lid_desordre = Desordre.id_desordre AND ncb.typeobservation = 'NCB'  
@@ -1207,379 +1579,7 @@
 LEFT JOIN Observation as nce ON nce.lid_desordre = Desordre.id_desordre AND nce.typeobservation = 'NCE' 
 LEFT JOIN Observation as SousObservation ON SousObservation.lid_observation = nca.id_observation 
 AND (SousObservation.item_type_1 = 0 OR SousObservation.item_type_2 = 0 OR SousObservation.item_type_3 = 0 OR SousObservation.item_type_4 = 0 OR SousObservation.item_type_5 = 0 OR SousObservation.item_type_6 = 0 OR SousObservation.item_type_7 = 0 OR SousObservation.item_type_8 = 0 OR SousObservation.item_type_9 = 0 OR SousObservation.item_type_10 = 0 OR SousObservation.item_type_11 = 0 OR SousObservation.item_type_12 = 0 OR SousObservation.item_type_13 = 0 OR SousObservation.item_type_14 = 0 OR SousObservation.item_type_15 = 0 OR SousObservation.item_type_16 = 0 OR SousObservation.item_type_17 = 0 OR SousObservation.item_type_18 = 0 OR SousObservation.item_type_19 = 0 OR SousObservation.item_type_20 = 0 OR SousObservation.item_type_21 = 0 OR SousObservation.item_type_22 = 0 OR SousObservation.item_type_23 = 0 OR SousObservation.item_type_24 = 0 OR SousObservation.item_type_25 = 0 OR SousObservation.item_type_26 = 0 OR SousObservation.item_type_27 = 0 OR SousObservation.item_type_28 = 0 OR SousObservation.item_type_29 = 0 OR SousObservation.item_type_30 = 0 OR SousObservation.item_type_31 = 0 OR SousObservation.item_type_32 = 0 OR SousObservation.item_type_33 = 0 OR SousObservation.item_type_34 = 0 OR SousObservation.item_type_35 = 0 OR SousObservation.item_type_36 = 0 OR SousObservation.item_type_37 = 0 OR SousObservation.item_type_38 = 0 OR SousObservation.item_type_39 = 0 OR SousObservation.item_type_40 = 0)
-GROUP BY Desordre.pk_desordre </t>
-  </si>
-  <si>
-    <t>N070GAY_S01A</t>
-  </si>
-  <si>
-    <t>N070GAY_S01B</t>
-  </si>
-  <si>
-    <t>N070GAY_S01C</t>
-  </si>
-  <si>
-    <t>N070GAY_S01D</t>
-  </si>
-  <si>
-    <t>N070GAY_S01E</t>
-  </si>
-  <si>
-    <t>N070GAY_S01F</t>
-  </si>
-  <si>
-    <t>N070GAY_S01G</t>
-  </si>
-  <si>
-    <t>N070GAY_S01H</t>
-  </si>
-  <si>
-    <t>N070RIO_S02A</t>
-  </si>
-  <si>
-    <t>N070RIO_S02B</t>
-  </si>
-  <si>
-    <t>N070RIO_S02C</t>
-  </si>
-  <si>
-    <t>N070RIO_S02D</t>
-  </si>
-  <si>
-    <t>N070RIO_S02E</t>
-  </si>
-  <si>
-    <t>N070RIO_S02F</t>
-  </si>
-  <si>
-    <t>N070RIO_S02G</t>
-  </si>
-  <si>
-    <t>N070RIO_S02I</t>
-  </si>
-  <si>
-    <t>N070RIO_S02J</t>
-  </si>
-  <si>
-    <t>N070GAY_S03I</t>
-  </si>
-  <si>
-    <t>N070GAY_S03J</t>
-  </si>
-  <si>
-    <t>N070GAY_S03K</t>
-  </si>
-  <si>
-    <t>N070GAY_S03L</t>
-  </si>
-  <si>
-    <t>N070GAY_S03M</t>
-  </si>
-  <si>
-    <t>N070GAY_S03N</t>
-  </si>
-  <si>
-    <t>N070LUR_S04A</t>
-  </si>
-  <si>
-    <t>N070LUR_S04B</t>
-  </si>
-  <si>
-    <t>N070LUR_S04C</t>
-  </si>
-  <si>
-    <t>N070LUR_S04D</t>
-  </si>
-  <si>
-    <t>N070LUR_S04E</t>
-  </si>
-  <si>
-    <t>N070LUR_S04F</t>
-  </si>
-  <si>
-    <t>N070LUR_S04G</t>
-  </si>
-  <si>
-    <t>N070ETZ_S05A</t>
-  </si>
-  <si>
-    <t>N070ETZ_S05B</t>
-  </si>
-  <si>
-    <t>N070ETZ_S05C</t>
-  </si>
-  <si>
-    <t>N070ETZ_S05D</t>
-  </si>
-  <si>
-    <t>N070VSX_S05A</t>
-  </si>
-  <si>
-    <t>N070VSX_S05B</t>
-  </si>
-  <si>
-    <t>N070VSX_S05C</t>
-  </si>
-  <si>
-    <t>N070VSX_S05E</t>
-  </si>
-  <si>
-    <t>N070GAY_S06O</t>
-  </si>
-  <si>
-    <t>N070GAY_S06P</t>
-  </si>
-  <si>
-    <t>N070GAY_S06Q</t>
-  </si>
-  <si>
-    <t>N070GAY_S06R</t>
-  </si>
-  <si>
-    <t>N070GAY_S06S</t>
-  </si>
-  <si>
-    <t>N070GAY_S061</t>
-  </si>
-  <si>
-    <t>N070MNY_S07A</t>
-  </si>
-  <si>
-    <t>N070MNY_S07B</t>
-  </si>
-  <si>
-    <t>N070MNY_S07C</t>
-  </si>
-  <si>
-    <t>N070MNY_S07D</t>
-  </si>
-  <si>
-    <t>N070MNY_S07E</t>
-  </si>
-  <si>
-    <t>N070MNY_S07F</t>
-  </si>
-  <si>
-    <t>N070MNY_S07G</t>
-  </si>
-  <si>
-    <t>N070PSM_S07A</t>
-  </si>
-  <si>
-    <t>N070PSM_S07B</t>
-  </si>
-  <si>
-    <t>N070PSM_S07D</t>
-  </si>
-  <si>
-    <t>N070LUR_S08H</t>
-  </si>
-  <si>
-    <t>N070LUR_S08I</t>
-  </si>
-  <si>
-    <t>N070LUR_S08J</t>
-  </si>
-  <si>
-    <t>N070LUR_S08K</t>
-  </si>
-  <si>
-    <t>N070LUR_S08L</t>
-  </si>
-  <si>
-    <t>N070LUR_S08M</t>
-  </si>
-  <si>
-    <t>N070LUR_S08W</t>
-  </si>
-  <si>
-    <t>N070LYO_S08A</t>
-  </si>
-  <si>
-    <t>N070LYO_S30B</t>
-  </si>
-  <si>
-    <t>N070PSS_S09A</t>
-  </si>
-  <si>
-    <t>N070PSS_S09B</t>
-  </si>
-  <si>
-    <t>N070PSS_S09C</t>
-  </si>
-  <si>
-    <t>N070PSS_S09D</t>
-  </si>
-  <si>
-    <t>N070PSS_S09E</t>
-  </si>
-  <si>
-    <t>N070PSS_S09F</t>
-  </si>
-  <si>
-    <t>N070PSS_S09G</t>
-  </si>
-  <si>
-    <t>N070PSS_S09I</t>
-  </si>
-  <si>
-    <t>N070SCE_S09A</t>
-  </si>
-  <si>
-    <t>N070SCE_S09B</t>
-  </si>
-  <si>
-    <t>N070SCE_S09C</t>
-  </si>
-  <si>
-    <t>N070SCE_S25D</t>
-  </si>
-  <si>
-    <t>N070SLP_S10A</t>
-  </si>
-  <si>
-    <t>N070SLP_S10B</t>
-  </si>
-  <si>
-    <t>N070SLP_S10C</t>
-  </si>
-  <si>
-    <t>N070SLP_S10D</t>
-  </si>
-  <si>
-    <t>N070SLP_S10E</t>
-  </si>
-  <si>
-    <t>N070SLP_S10F</t>
-  </si>
-  <si>
-    <t>N070SLP_S10G</t>
-  </si>
-  <si>
-    <t>N070SLP_S10H</t>
-  </si>
-  <si>
-    <t>N070SLP_S10I</t>
-  </si>
-  <si>
-    <t>N070LUX_S11H</t>
-  </si>
-  <si>
-    <t>N070LUX_S11I</t>
-  </si>
-  <si>
-    <t>N070LUX_S11J</t>
-  </si>
-  <si>
-    <t>N070LUX_S11K</t>
-  </si>
-  <si>
-    <t>N070LUX_S11L</t>
-  </si>
-  <si>
-    <t>N070LUX_S11M</t>
-  </si>
-  <si>
-    <t>N070LUX_S11N</t>
-  </si>
-  <si>
-    <t>N070LUX_S12A</t>
-  </si>
-  <si>
-    <t>N070LUX_S12B</t>
-  </si>
-  <si>
-    <t>N070LUX_S12C</t>
-  </si>
-  <si>
-    <t>N070LUX_S12D</t>
-  </si>
-  <si>
-    <t>N070LUX_S12E</t>
-  </si>
-  <si>
-    <t>N070LUX_S12F</t>
-  </si>
-  <si>
-    <t>N070LUX_S12G</t>
-  </si>
-  <si>
-    <t>N070HCT_S13O</t>
-  </si>
-  <si>
-    <t>N070HCT_S13P</t>
-  </si>
-  <si>
-    <t>N070HCT_S13Q</t>
-  </si>
-  <si>
-    <t>N070HCT_S13R</t>
-  </si>
-  <si>
-    <t>N070HCT_S13S</t>
-  </si>
-  <si>
-    <t>N070HCT_S13T</t>
-  </si>
-  <si>
-    <t>N070HCT_S13U</t>
-  </si>
-  <si>
-    <t>N070HCT_S14I</t>
-  </si>
-  <si>
-    <t>N070HCT_S14J</t>
-  </si>
-  <si>
-    <t>N070HCT_S14K</t>
-  </si>
-  <si>
-    <t>N070HCT_S14L</t>
-  </si>
-  <si>
-    <t>N070HCT_S14M</t>
-  </si>
-  <si>
-    <t>N070HCT_S14N</t>
-  </si>
-  <si>
-    <t>N070HCT_S15A</t>
-  </si>
-  <si>
-    <t>N070HCT_S15B</t>
-  </si>
-  <si>
-    <t>N070HCT_S15C</t>
-  </si>
-  <si>
-    <t>N070HCT_S15D</t>
-  </si>
-  <si>
-    <t>N070HCT_S15E</t>
-  </si>
-  <si>
-    <t>N070HCT_S15F</t>
-  </si>
-  <si>
-    <t>N070HCT_S15G</t>
-  </si>
-  <si>
-    <t>N070HCT_S15H</t>
-  </si>
-  <si>
-    <t>nca_mandataire</t>
-  </si>
-  <si>
-    <t>CIRCET</t>
-  </si>
-  <si>
-    <t>INEO</t>
-  </si>
-  <si>
-    <t>SOGETREL</t>
-  </si>
-  <si>
-    <t>AXIANS</t>
+GROUP BY Desordre.pk_desordre ,Objet.pk_objet</t>
   </si>
 </sst>
 </file>
@@ -2125,13 +2125,13 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2569,13 +2569,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -2669,38 +2669,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="21.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="21.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="27.88671875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="21.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="21.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>222</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>389</v>
+        <v>513</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>117</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F10" s="17" t="s">
         <v>167</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>121</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>123</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
@@ -2857,12 +2857,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>201</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F22" s="10" t="s">
         <v>202</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F23" s="10" t="s">
         <v>203</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F24" s="10" t="s">
         <v>204</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>208</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>155</v>
       </c>
@@ -2913,12 +2913,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>251</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>252</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>253</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>254</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>265</v>
       </c>
@@ -2958,958 +2958,958 @@
         <v>118</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="F35" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="F36" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="F37" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="F38" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="3" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="3" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F42" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="3" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="3" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F43" s="3" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F44" s="3" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F46" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="3" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F47" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F48" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F47" s="3" t="s">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F48" s="3" t="s">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" s="3" t="s">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F50" s="3" t="s">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F51" s="3" t="s">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F52" s="3" t="s">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F53" s="3" t="s">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F54" s="3" t="s">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F55" s="3" t="s">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F56" s="3" t="s">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F57" s="3" t="s">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F58" s="3" t="s">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F59" s="3" t="s">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F60" s="3" t="s">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F61" s="3" t="s">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F63" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F62" s="3" t="s">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F64" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F63" s="3" t="s">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F65" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F64" s="3" t="s">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F66" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F65" s="3" t="s">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F67" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F66" s="3" t="s">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F68" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F67" s="3" t="s">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F69" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F68" s="3" t="s">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F70" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F69" s="3" t="s">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F71" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F70" s="3" t="s">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F72" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F71" s="3" t="s">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F73" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F72" s="3" t="s">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F73" s="3" t="s">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F75" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F74" s="3" t="s">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F76" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F75" s="3" t="s">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F77" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F76" s="3" t="s">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F78" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F77" s="3" t="s">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F79" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F78" s="3" t="s">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F80" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F79" s="3" t="s">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F81" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F80" s="3" t="s">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F82" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="3" t="s">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F83" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="3" t="s">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F84" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="3" t="s">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F85" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="3" t="s">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F86" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G86" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="3" t="s">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="3" t="s">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F88" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="3" t="s">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F89" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="3" t="s">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F90" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="3" t="s">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F91" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="3" t="s">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F92" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="3" t="s">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F93" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="3" t="s">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F94" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="3" t="s">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F95" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="3" t="s">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F96" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="3" t="s">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="3" t="s">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F98" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F97" s="3" t="s">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F99" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F98" s="3" t="s">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F100" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F99" s="3" t="s">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F101" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F100" s="3" t="s">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F102" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F101" s="3" t="s">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F103" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F102" s="3" t="s">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F104" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F103" s="3" t="s">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F104" s="3" t="s">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F105" s="3" t="s">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F106" s="3" t="s">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F107" s="3" t="s">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F108" s="3" t="s">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F109" s="3" t="s">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F110" s="3" t="s">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F111" s="3" t="s">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F112" s="3" t="s">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F113" s="3" t="s">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F114" s="3" t="s">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F115" s="3" t="s">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F116" s="3" t="s">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F117" s="3" t="s">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F118" s="3" t="s">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F119" s="3" t="s">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F121" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F120" s="3" t="s">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F122" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F121" s="3" t="s">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F123" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F122" s="3" t="s">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F124" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F123" s="3" t="s">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F125" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F124" s="3" t="s">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F126" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F125" s="3" t="s">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F127" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F126" s="3" t="s">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F128" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F127" s="3" t="s">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F129" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F128" s="3" t="s">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F130" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F129" s="3" t="s">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G131" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F130" s="3" t="s">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F132" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="G132" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F131" s="3" t="s">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F133" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F132" s="3" t="s">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F134" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F133" s="3" t="s">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F135" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F134" s="3" t="s">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F136" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F135" s="3" t="s">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F137" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F136" s="3" t="s">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F138" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F137" s="3" t="s">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F139" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="G139" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F138" s="3" t="s">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F140" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F139" s="3" t="s">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F141" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="G141" s="3" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F140" s="3" t="s">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F142" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="G142" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F141" s="3" t="s">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F143" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="G143" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F142" s="3" t="s">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F144" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="G144" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F143" s="3" t="s">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F145" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G145" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F144" s="3" t="s">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F146" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="G146" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F145" s="3" t="s">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F147" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F146" s="3" t="s">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F148" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F147" s="3" t="s">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F149" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="G149" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F148" s="3" t="s">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F150" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G150" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F149" s="3" t="s">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F151" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="G151" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F150" s="3" t="s">
+    <row r="152" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F152" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="G152" s="3" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F151" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F152" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -3922,18 +3922,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="36.44140625" style="3" customWidth="1"/>
+    <col min="2" max="8" width="25.6640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>127</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>129</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>131</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>132</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" s="3" t="s">
         <v>135</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F12" s="3" t="s">
         <v>136</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" s="3" t="s">
         <v>137</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F14" s="3" t="s">
         <v>138</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>139</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F17" s="3" t="s">
         <v>143</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F18" s="3" t="s">
         <v>145</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" s="3" t="s">
         <v>147</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" s="3" t="s">
         <v>149</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F21" s="6" t="s">
         <v>151</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>153</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>154</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>156</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>305</v>
       </c>
@@ -4186,12 +4186,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>170</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F30" s="3" t="s">
         <v>174</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="s">
         <v>171</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F32" s="15" t="s">
         <v>232</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F33" s="15" t="s">
         <v>233</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F34" s="17" t="s">
         <v>236</v>
       </c>
@@ -4245,25 +4245,25 @@
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>261</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>262</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>196</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>183</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>184</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>185</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>186</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>187</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>188</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>200</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>189</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>190</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48"/>
       <c r="F48" s="7" t="s">
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49"/>
       <c r="F49" s="7" t="s">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50"/>
       <c r="F50" s="7" t="s">
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>194</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>195</v>
       </c>
@@ -4394,19 +4394,19 @@
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="B53"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>267</v>
       </c>
@@ -4414,9 +4414,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B56" t="s">
         <v>118</v>
@@ -4425,55 +4425,55 @@
         <v>197</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="22"/>
       <c r="B57"/>
       <c r="I57" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58"/>
       <c r="I58" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59"/>
       <c r="I59" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="22"/>
       <c r="B60"/>
       <c r="I60" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="20" t="s">
         <v>268</v>
       </c>
@@ -4481,12 +4481,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
         <v>269</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66"/>
       <c r="F66" s="20" t="s">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67"/>
       <c r="F67" s="20" t="s">
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>270</v>
       </c>
@@ -4525,16 +4525,16 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>271</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>272</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>304</v>
       </c>
@@ -4558,16 +4558,16 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>273</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>274</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>275</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>276</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>277</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>278</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>279</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>280</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>281</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>282</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>283</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>284</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>285</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>286</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
         <v>287</v>
       </c>
@@ -4687,12 +4687,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>288</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="F94" s="20" t="s">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="F95" s="20" t="s">
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
         <v>289</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="20"/>
       <c r="F97" s="20" t="s">
         <v>229</v>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="F98" s="20" t="s">
         <v>228</v>
@@ -4752,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>290</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="F100" s="20" t="s">
         <v>229</v>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="F101" s="20" t="s">
         <v>228</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
         <v>291</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="F103" s="20" t="s">
         <v>229</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="F104" s="20" t="s">
         <v>228</v>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>292</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="F106" s="20" t="s">
         <v>229</v>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="20"/>
       <c r="F107" s="20" t="s">
         <v>228</v>
@@ -4839,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="20" t="s">
         <v>293</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="F109" s="20" t="s">
         <v>229</v>
@@ -4859,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="F110" s="20" t="s">
         <v>228</v>
@@ -4868,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>294</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="F112" s="20" t="s">
         <v>229</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="F113" s="20" t="s">
         <v>228</v>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="20" t="s">
         <v>295</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="20"/>
       <c r="F115" s="20" t="s">
         <v>229</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="F116" s="20" t="s">
         <v>228</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
         <v>296</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="F118" s="20" t="s">
         <v>229</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="20"/>
       <c r="F119" s="20" t="s">
         <v>228</v>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="20" t="s">
         <v>297</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="F121" s="20" t="s">
         <v>229</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="F122" s="20" t="s">
         <v>228</v>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="20" t="s">
         <v>298</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="F124" s="20" t="s">
         <v>229</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="F125" s="20" t="s">
         <v>228</v>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="20" t="s">
         <v>299</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="F127" s="20" t="s">
         <v>229</v>
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="F128" s="20" t="s">
         <v>228</v>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="20" t="s">
         <v>300</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="F130" s="20" t="s">
         <v>229</v>
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="F131" s="20" t="s">
         <v>228</v>
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="20" t="s">
         <v>301</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="F133" s="20" t="s">
         <v>229</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="F134" s="20" t="s">
         <v>228</v>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
         <v>302</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="20"/>
       <c r="F136" s="20" t="s">
         <v>229</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F137" s="20" t="s">
         <v>228</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="20" t="s">
         <v>303</v>
       </c>
@@ -5136,15 +5136,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
       <c r="B139"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>177</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>180</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>198</v>
       </c>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="D143" s="7"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>181</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>182</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>199</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>224</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>214</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>225</v>
       </c>
@@ -5235,27 +5235,27 @@
         <v>130</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="12"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="12"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="12"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="12"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="12"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="20" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
         <v>209</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F157" s="10" t="s">
         <v>211</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F158" s="10" t="s">
         <v>210</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="16" t="s">
         <v>212</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="s">
         <v>213</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>215</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
         <v>217</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F165" s="10" t="s">
         <v>220</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F166" s="10" t="s">
         <v>221</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="16" t="s">
         <v>218</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="16" t="s">
         <v>219</v>
       </c>
@@ -5358,12 +5358,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="10"/>
       <c r="B169"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="16" t="s">
         <v>226</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="12"/>
       <c r="B171"/>
       <c r="D171" s="7"/>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="12"/>
       <c r="B172"/>
       <c r="D172" s="7"/>
@@ -5397,12 +5397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="12"/>
       <c r="B173"/>
       <c r="D173" s="7"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="16" t="s">
         <v>227</v>
       </c>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D174" s="7"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="16" t="s">
         <v>230</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F177" s="12" t="s">
         <v>229</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F178" s="12" t="s">
         <v>228</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="16" t="s">
         <v>231</v>
       </c>
@@ -5446,12 +5446,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
         <v>238</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>239</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>240</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
         <v>246</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
         <v>241</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
         <v>242</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>243</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
         <v>247</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
         <v>244</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
         <v>245</v>
       </c>
@@ -5531,12 +5531,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="20" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="20" t="s">
         <v>307</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="20" t="s">
         <v>308</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="20" t="s">
         <v>309</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="20" t="s">
         <v>310</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="20" t="s">
         <v>312</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="20" t="s">
         <v>313</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="20" t="s">
         <v>311</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="20" t="s">
         <v>314</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="20" t="s">
         <v>315</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="20" t="s">
         <v>316</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="20" t="s">
         <v>317</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="20" t="s">
         <v>318</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="20" t="s">
         <v>319</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="20" t="s">
         <v>320</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="20" t="s">
         <v>321</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="20" t="s">
         <v>322</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="20" t="s">
         <v>323</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="20" t="s">
         <v>324</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="20" t="s">
         <v>325</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="20" t="s">
         <v>326</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="20" t="s">
         <v>327</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="20" t="s">
         <v>328</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="20" t="s">
         <v>329</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="20" t="s">
         <v>330</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="20" t="s">
         <v>331</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="20" t="s">
         <v>332</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="20" t="s">
         <v>333</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="20" t="s">
         <v>334</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="20" t="s">
         <v>335</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="20" t="s">
         <v>336</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="20" t="s">
         <v>337</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="20" t="s">
         <v>338</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="20" t="s">
         <v>339</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="20" t="s">
         <v>340</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="20" t="s">
         <v>341</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="20" t="s">
         <v>342</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="20" t="s">
         <v>343</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="20" t="s">
         <v>344</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="20" t="s">
         <v>345</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="20" t="s">
         <v>346</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="20" t="s">
         <v>347</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="20" t="s">
         <v>348</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="20" t="s">
         <v>349</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="20" t="s">
         <v>350</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="20" t="s">
         <v>351</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="20" t="s">
         <v>352</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="20" t="s">
         <v>353</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="20" t="s">
         <v>354</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="20" t="s">
         <v>355</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="20" t="s">
         <v>356</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="20" t="s">
         <v>357</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="20" t="s">
         <v>358</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="20" t="s">
         <v>359</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="20" t="s">
         <v>360</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="20" t="s">
         <v>361</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="20" t="s">
         <v>362</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="20" t="s">
         <v>363</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="20" t="s">
         <v>364</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="20" t="s">
         <v>365</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="20" t="s">
         <v>366</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="20" t="s">
         <v>367</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="20" t="s">
         <v>368</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="20" t="s">
         <v>369</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="20" t="s">
         <v>370</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="20" t="s">
         <v>371</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="20" t="s">
         <v>372</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="20" t="s">
         <v>373</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="20" t="s">
         <v>374</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="20" t="s">
         <v>375</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="20" t="s">
         <v>376</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="20" t="s">
         <v>377</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="20" t="s">
         <v>378</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="20" t="s">
         <v>379</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="20" t="s">
         <v>380</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="20" t="s">
         <v>381</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="20" t="s">
         <v>382</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="20" t="s">
         <v>383</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="20" t="s">
         <v>384</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="20" t="s">
         <v>385</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="20" t="s">
         <v>386</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="20" t="s">
         <v>387</v>
       </c>
@@ -6198,13 +6198,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="1" max="8" width="24.88671875" customWidth="1"/>
+    <col min="9" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>162</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>163</v>
       </c>
